--- a/sheet2.xlsx
+++ b/sheet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oss\Dropbox\OS Dashboard\ALL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C858BC6D-6AC4-4E5F-B495-B81C056BF0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850A26C-0158-4916-B9BE-6194F688FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36345" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
+    <workbookView xWindow="3630" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3888488-1D52-47E3-8F83-FBE810A7C6BA}">
-  <dimension ref="A1:B1393"/>
+  <dimension ref="A1:B1400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1379" workbookViewId="0">
-      <selection activeCell="D1391" sqref="D1391"/>
+    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
+      <selection activeCell="D1393" sqref="D1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8864,6 +8864,62 @@
         <v>83.5</v>
       </c>
     </row>
+    <row r="1394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1394" s="9">
+        <v>45985</v>
+      </c>
+      <c r="B1394">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1395" s="9">
+        <v>45986</v>
+      </c>
+      <c r="B1395">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1396" s="9">
+        <v>45987</v>
+      </c>
+      <c r="B1396">
+        <v>79.75</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1397" s="9">
+        <v>45989</v>
+      </c>
+      <c r="B1397">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1398" s="9">
+        <v>45992</v>
+      </c>
+      <c r="B1398">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1399" s="9">
+        <v>45993</v>
+      </c>
+      <c r="B1399">
+        <v>75.75</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1400" s="9">
+        <v>45994</v>
+      </c>
+      <c r="B1400">
+        <v>71.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/sheet2.xlsx
+++ b/sheet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850A26C-0158-4916-B9BE-6194F688FD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2F6CF-D3E5-4C52-8A7F-3DE845E2B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
+    <workbookView xWindow="3285" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3888488-1D52-47E3-8F83-FBE810A7C6BA}">
-  <dimension ref="A1:B1400"/>
+  <dimension ref="A1:B1402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1382" workbookViewId="0">
-      <selection activeCell="D1393" sqref="D1393"/>
+    <sheetView tabSelected="1" topLeftCell="A1385" workbookViewId="0">
+      <selection activeCell="E1398" sqref="E1398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8909,7 +8909,7 @@
         <v>45993</v>
       </c>
       <c r="B1399">
-        <v>75.75</v>
+        <v>77.75</v>
       </c>
     </row>
     <row r="1400" spans="1:2" x14ac:dyDescent="0.25">
@@ -8917,7 +8917,23 @@
         <v>45994</v>
       </c>
       <c r="B1400">
-        <v>71.25</v>
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1401" s="9">
+        <v>45995</v>
+      </c>
+      <c r="B1401">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1402" s="9">
+        <v>45996</v>
+      </c>
+      <c r="B1402">
+        <v>74.5</v>
       </c>
     </row>
   </sheetData>

--- a/sheet2.xlsx
+++ b/sheet2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29611"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2F6CF-D3E5-4C52-8A7F-3DE845E2B0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C16585-AFAC-486F-8A17-162BD2ADAB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{117594F9-9FB6-4C05-BDD7-2498228A430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3888488-1D52-47E3-8F83-FBE810A7C6BA}">
-  <dimension ref="A1:B1402"/>
+  <dimension ref="A1:B1407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1385" workbookViewId="0">
-      <selection activeCell="E1398" sqref="E1398"/>
+      <selection activeCell="E1404" sqref="E1404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,6 +8936,46 @@
         <v>74.5</v>
       </c>
     </row>
+    <row r="1403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1403" s="9">
+        <v>45999</v>
+      </c>
+      <c r="B1403">
+        <v>80.75</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1404" s="9">
+        <v>46000</v>
+      </c>
+      <c r="B1404">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1405" s="9">
+        <v>46001</v>
+      </c>
+      <c r="B1405">
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1406" s="9">
+        <v>46002</v>
+      </c>
+      <c r="B1406">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1407" s="9">
+        <v>46003</v>
+      </c>
+      <c r="B1407">
+        <v>80.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
